--- a/primers/sybr_primers.xlsx
+++ b/primers/sybr_primers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="600" windowWidth="28540" windowHeight="9160" tabRatio="500"/>
+    <workbookView xWindow="6640" yWindow="600" windowWidth="21860" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Neuronal calcium sensor 1, Ncs1</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>ribosomal protein L19, rpl19</t>
-  </si>
-  <si>
-    <t>18S ribosomal RNA, Rn18S</t>
   </si>
   <si>
     <t>fragile X mental retardation syndrome 1, fmr1</t>
@@ -767,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,271 +781,294 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>61.2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>61.2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62.8</v>
       </c>
       <c r="H3">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>62.8</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>61.8</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>88</v>
+        <v>61.5</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>296</v>
+      </c>
+      <c r="I6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>61.8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>61.5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
-        <v>58</v>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
+      <c r="E8" t="s">
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
-        <v>68</v>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9">
-        <v>62</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>62</v>
@@ -1057,42 +1077,42 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
@@ -1100,380 +1120,355 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
       <c r="H14">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16">
         <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16">
         <v>61</v>
       </c>
-      <c r="H16">
-        <v>173</v>
-      </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G17">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G18">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>62.1</v>
       </c>
       <c r="H19">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>60.1</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="G20">
-        <v>62.1</v>
+        <v>61</v>
       </c>
       <c r="H20">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G21">
         <v>61</v>
       </c>
       <c r="H21">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22">
+        <v>62</v>
+      </c>
+      <c r="H22">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
         <v>128</v>
-      </c>
-      <c r="F22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22">
-        <v>61</v>
-      </c>
-      <c r="H22">
-        <v>191</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G23">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
       <c r="D24">
         <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25">
-        <v>61</v>
-      </c>
-      <c r="H25">
-        <v>204</v>
-      </c>
-      <c r="I25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A25" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -1486,10 +1481,6 @@
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G40">

--- a/primers/sybr_primers.xlsx
+++ b/primers/sybr_primers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="600" windowWidth="21860" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="21860" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>Neuronal calcium sensor 1, Ncs1</t>
   </si>
@@ -119,15 +119,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>Mm_NCs1_F</t>
-  </si>
-  <si>
     <t>primerbankid</t>
   </si>
   <si>
-    <t>Mm_NCs1_R</t>
-  </si>
-  <si>
     <t>12963619a1</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>GTCCCACCACAGTAGAATTGG</t>
   </si>
   <si>
-    <t>Mm_arc_F</t>
-  </si>
-  <si>
-    <t>Mm_arc_R</t>
-  </si>
-  <si>
     <t>AGCCGGGTACTACCATTCTAC</t>
   </si>
   <si>
@@ -161,12 +149,6 @@
     <t>28916677a1</t>
   </si>
   <si>
-    <t>Mm_Camk2a_F</t>
-  </si>
-  <si>
-    <t>Mm_Camk2a_R</t>
-  </si>
-  <si>
     <t>6753896a1</t>
   </si>
   <si>
@@ -176,15 +158,6 @@
     <t>CTGCTGCTGTCGATGCTTG</t>
   </si>
   <si>
-    <t>Mm_Creb1_F</t>
-  </si>
-  <si>
-    <t>Mm_Creb1_R</t>
-  </si>
-  <si>
-    <t>Mm_fos_F</t>
-  </si>
-  <si>
     <t>26345186a1</t>
   </si>
   <si>
@@ -194,12 +167,6 @@
     <t>TGTGTAGGCTTTGTTGGAAAGAA</t>
   </si>
   <si>
-    <t>Mm_frm1_F</t>
-  </si>
-  <si>
-    <t>Mm_fmr1_R</t>
-  </si>
-  <si>
     <t>ACGTGACAGAACGCGAACTT</t>
   </si>
   <si>
@@ -218,18 +185,6 @@
     <t>CCCTCCTCCCTCTCAATAGC</t>
   </si>
   <si>
-    <t>Mm_grin1_F</t>
-  </si>
-  <si>
-    <t>Mm_grin1_R</t>
-  </si>
-  <si>
-    <t>Mm_grin2a_F</t>
-  </si>
-  <si>
-    <t>Mm_grin2a_R</t>
-  </si>
-  <si>
     <t>TGGAACAGAGCATTGAGTTCATC</t>
   </si>
   <si>
@@ -239,39 +194,6 @@
     <t>34328063a1</t>
   </si>
   <si>
-    <t>Mm_grm1_F</t>
-  </si>
-  <si>
-    <t>Mm_grm1_R</t>
-  </si>
-  <si>
-    <t>Mm_grm2_F</t>
-  </si>
-  <si>
-    <t>Mm_grm3_F</t>
-  </si>
-  <si>
-    <t>Mm_grm4_F</t>
-  </si>
-  <si>
-    <t>Mm_grm5_F</t>
-  </si>
-  <si>
-    <t>Mm_grm2_R</t>
-  </si>
-  <si>
-    <t>Mm_grm3_R</t>
-  </si>
-  <si>
-    <t>Mm_grm4_R</t>
-  </si>
-  <si>
-    <t>Mm_grm5_R</t>
-  </si>
-  <si>
-    <t>Mm_fos_R</t>
-  </si>
-  <si>
     <t>29611608a1</t>
   </si>
   <si>
@@ -317,21 +239,12 @@
     <t>6680193a1</t>
   </si>
   <si>
-    <t>Mm_hdac1_F</t>
-  </si>
-  <si>
-    <t>Mm_hdac1_R</t>
-  </si>
-  <si>
     <t>GGAGGAGGCTACACAATCCG</t>
   </si>
   <si>
     <t>TCTGGAGTGTTCTGGTTTGTCA</t>
   </si>
   <si>
-    <t>Mm_hdac2_R</t>
-  </si>
-  <si>
     <t>6680195a1</t>
   </si>
   <si>
@@ -344,24 +257,12 @@
     <t>31542992a1</t>
   </si>
   <si>
-    <t>Mm_IGF2_F</t>
-  </si>
-  <si>
-    <t>Mm_IGF2_R</t>
-  </si>
-  <si>
     <t>GTCCGCCCTGAGAAATCCAG</t>
   </si>
   <si>
     <t>CTCGCCCTTGTCGTACCAC</t>
   </si>
   <si>
-    <t>Mm_gria1_F</t>
-  </si>
-  <si>
-    <t>Mm_gria1_R</t>
-  </si>
-  <si>
     <t>34328128a1</t>
   </si>
   <si>
@@ -374,24 +275,12 @@
     <t>29387225a1</t>
   </si>
   <si>
-    <t>Mm_gria2_F</t>
-  </si>
-  <si>
-    <t>Mm_gria2_R</t>
-  </si>
-  <si>
     <t>CTTTGCAGTGAGGTTCGAGAT</t>
   </si>
   <si>
     <t>AGCCTCTTCTAACTCCAACTGAG</t>
   </si>
   <si>
-    <t>Mm_Prkci_F</t>
-  </si>
-  <si>
-    <t>Mm_Prkci_R</t>
-  </si>
-  <si>
     <t>6679349a1</t>
   </si>
   <si>
@@ -404,24 +293,12 @@
     <t>6679355a1</t>
   </si>
   <si>
-    <t>Mm_Prkcz_F</t>
-  </si>
-  <si>
-    <t>Mm_Prkcz_R</t>
-  </si>
-  <si>
     <t>6681195a1</t>
   </si>
   <si>
     <t>CTTCCTCCCCTAGCAGGTCC</t>
   </si>
   <si>
-    <t>Mm_Dlg4_F</t>
-  </si>
-  <si>
-    <t>Mm_Dlg4_R</t>
-  </si>
-  <si>
     <t>ATGAGTATGCTCAGGCTACAGA</t>
   </si>
   <si>
@@ -431,9 +308,6 @@
     <t>6677773a1</t>
   </si>
   <si>
-    <t>Mm_rpl19</t>
-  </si>
-  <si>
     <t>CTGGACACAGAATTGTGGAGG</t>
   </si>
   <si>
@@ -443,7 +317,214 @@
     <t>26340290a1</t>
   </si>
   <si>
-    <t>Mm_rpl19_F</t>
+    <t>TGAGATCAGTCATAGCAGCTACT</t>
+  </si>
+  <si>
+    <t>Mm_arc_1F</t>
+  </si>
+  <si>
+    <t>Mm_Camk2a_1F</t>
+  </si>
+  <si>
+    <t>Mm_Creb1_1F</t>
+  </si>
+  <si>
+    <t>Mm_1Fos_1F</t>
+  </si>
+  <si>
+    <t>Mm_1Frm1_1F</t>
+  </si>
+  <si>
+    <t>Mm_grin1_1F</t>
+  </si>
+  <si>
+    <t>Mm_grin2a_1F</t>
+  </si>
+  <si>
+    <t>Mm_grm1_1F</t>
+  </si>
+  <si>
+    <t>Mm_grm2_1F</t>
+  </si>
+  <si>
+    <t>Mm_grm3_1F</t>
+  </si>
+  <si>
+    <t>Mm_grm4_1F</t>
+  </si>
+  <si>
+    <t>Mm_grm5_1F</t>
+  </si>
+  <si>
+    <t>Mm_hdac1_1F</t>
+  </si>
+  <si>
+    <t>Mm_IGF2_1F</t>
+  </si>
+  <si>
+    <t>Mm_gria1_1F</t>
+  </si>
+  <si>
+    <t>Mm_gria2_1F</t>
+  </si>
+  <si>
+    <t>Mm_NCs1_1F</t>
+  </si>
+  <si>
+    <t>Mm_Prkci_1F</t>
+  </si>
+  <si>
+    <t>Mm_Prkcz_1F</t>
+  </si>
+  <si>
+    <t>Mm_Dlg4_1F</t>
+  </si>
+  <si>
+    <t>Mm_arc_1R</t>
+  </si>
+  <si>
+    <t>Mm_Camk2a_1R</t>
+  </si>
+  <si>
+    <t>Mm_Creb1_1R</t>
+  </si>
+  <si>
+    <t>Mm_1Fos_1R</t>
+  </si>
+  <si>
+    <t>Mm_1Fmr1_1R</t>
+  </si>
+  <si>
+    <t>Mm_grin1_1R</t>
+  </si>
+  <si>
+    <t>Mm_grin2a_1R</t>
+  </si>
+  <si>
+    <t>Mm_grm1_1R</t>
+  </si>
+  <si>
+    <t>Mm_grm2_1R</t>
+  </si>
+  <si>
+    <t>Mm_grm3_1R</t>
+  </si>
+  <si>
+    <t>Mm_grm4_1R</t>
+  </si>
+  <si>
+    <t>Mm_grm5_1R</t>
+  </si>
+  <si>
+    <t>Mm_hdac1_1R</t>
+  </si>
+  <si>
+    <t>Mm_hdac2_1R</t>
+  </si>
+  <si>
+    <t>Mm_IGF2_1R</t>
+  </si>
+  <si>
+    <t>Mm_gria1_1R</t>
+  </si>
+  <si>
+    <t>Mm_gria2_1R</t>
+  </si>
+  <si>
+    <t>Mm_NCs1_1R</t>
+  </si>
+  <si>
+    <t>Mm_Prkci_1R</t>
+  </si>
+  <si>
+    <t>Mm_Prkcz_1R</t>
+  </si>
+  <si>
+    <t>Mm_Dlg4_1R</t>
+  </si>
+  <si>
+    <t>Mm_Sypl_1F</t>
+  </si>
+  <si>
+    <t>Mm_Sypl_1R</t>
+  </si>
+  <si>
+    <t>Mm_Rpl19_1F</t>
+  </si>
+  <si>
+    <t>Mm_Rpl19_1R</t>
+  </si>
+  <si>
+    <t>CTCCATGCTGTTACGACTCATC</t>
+  </si>
+  <si>
+    <t>AGGGAGGAAGGAGCCAAAATC</t>
+  </si>
+  <si>
+    <t>huntingtin, Htt</t>
+  </si>
+  <si>
+    <t>Mm_Htt_1F</t>
+  </si>
+  <si>
+    <t>Mm_Htt_1R</t>
+  </si>
+  <si>
+    <t>438805a1</t>
+  </si>
+  <si>
+    <t>TGACCCACTCGCTAATACTGTC</t>
+  </si>
+  <si>
+    <t>TTACCTGGATGCCGCAAACAT</t>
+  </si>
+  <si>
+    <t>brain derived neurotrophic factor (Bdnf), transcript variant 3</t>
+  </si>
+  <si>
+    <t>Mm_Bdnf_1R</t>
+  </si>
+  <si>
+    <t>Mm_Bdnf_1F</t>
+  </si>
+  <si>
+    <t>TGACCCAAACCCTCCTTGTCT</t>
+  </si>
+  <si>
+    <t>GTGATGTTGTCATTGGTCTCGT</t>
+  </si>
+  <si>
+    <t>30578386a1</t>
+  </si>
+  <si>
+    <t>gamma-aminobutyric acid (GABA) A receptor, subunit alpha 5 (Gabra5)</t>
+  </si>
+  <si>
+    <t>Mm_Gabra5_1F</t>
+  </si>
+  <si>
+    <t>Mm_Gabra5_1R</t>
+  </si>
+  <si>
+    <t>114326460c3</t>
+  </si>
+  <si>
+    <t>ATTGGGGACTACGTGGGCT</t>
+  </si>
+  <si>
+    <t>CCACATTCACAGGAGCACC</t>
+  </si>
+  <si>
+    <t>6679913a1</t>
+  </si>
+  <si>
+    <t>gamma-aminobutyric acid (GABA) A receptor, subunit delta (Gabrd)</t>
+  </si>
+  <si>
+    <t>Mm_Gabrd_1R</t>
+  </si>
+  <si>
+    <t>Mm_Gabrd_1F</t>
   </si>
 </sst>
 </file>
@@ -766,13 +847,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -802,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -810,19 +891,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>61.2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -831,7 +912,7 @@
         <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -839,19 +920,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>62.8</v>
@@ -860,7 +941,7 @@
         <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -868,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -889,7 +970,7 @@
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -897,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>61.8</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>61.5</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -923,19 +1004,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -944,7 +1025,7 @@
         <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -952,19 +1033,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>60</v>
@@ -973,7 +1054,7 @@
         <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -981,19 +1062,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>62</v>
@@ -1002,7 +1083,7 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1010,25 +1091,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1036,19 +1117,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>62</v>
@@ -1057,7 +1138,7 @@
         <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1065,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>60</v>
@@ -1086,7 +1167,7 @@
         <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1094,19 +1175,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>62</v>
@@ -1115,7 +1196,7 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1123,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G13">
         <v>60</v>
@@ -1144,7 +1225,7 @@
         <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1152,19 +1233,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G14">
         <v>60</v>
@@ -1173,7 +1254,7 @@
         <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1181,19 +1262,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G15">
         <v>61</v>
@@ -1202,7 +1283,7 @@
         <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1210,25 +1291,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1236,19 +1317,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>62</v>
@@ -1257,7 +1338,7 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1265,19 +1346,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1286,7 +1367,7 @@
         <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1294,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1303,7 +1384,7 @@
         <v>60.1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
@@ -1323,19 +1404,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>61</v>
@@ -1344,7 +1425,7 @@
         <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1352,19 +1433,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>61</v>
@@ -1373,7 +1454,7 @@
         <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1381,19 +1462,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>62</v>
@@ -1402,7 +1483,7 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1410,19 +1491,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="G23">
         <v>60</v>
@@ -1431,7 +1512,7 @@
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1442,16 +1523,16 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="G24">
         <v>61</v>
@@ -1460,11 +1541,124 @@
         <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="H25">
+        <v>222</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>109</v>
+      </c>
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>118</v>
+      </c>
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>

--- a/primers/sybr_primers.xlsx
+++ b/primers/sybr_primers.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/qPCR-mouse/primers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\NSB_2016\4_MouseMolecular\qPCR-mouse\primers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="21860" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1950" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>Neuronal calcium sensor 1, Ncs1</t>
   </si>
@@ -95,12 +95,6 @@
     <t>PSD-95, Dlg4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>tm</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>9790115a1</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>primerbankid</t>
   </si>
   <si>
@@ -525,6 +516,42 @@
   </si>
   <si>
     <t>Mm_Gabrd_1F</t>
+  </si>
+  <si>
+    <t>full gene name</t>
+  </si>
+  <si>
+    <t>forward primer name</t>
+  </si>
+  <si>
+    <t>reverse primer name</t>
+  </si>
+  <si>
+    <t>reverse sequence</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>gene accession number</t>
+  </si>
+  <si>
+    <t>brain derived neurotrophic factor (Bdnf), transcript variant 11</t>
+  </si>
+  <si>
+    <t>TCCATCACACATTCCTCCCAA</t>
+  </si>
+  <si>
+    <t>CACGCTGTCACCAGAAACAC</t>
+  </si>
+  <si>
+    <t>NM_001285422.1</t>
+  </si>
+  <si>
+    <t>CCAAGGACTATGCTGCTGACT</t>
+  </si>
+  <si>
+    <t>ACGCTGTCACCAGAAACACA</t>
   </si>
 </sst>
 </file>
@@ -577,6 +604,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -845,65 +875,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>61.2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -912,27 +949,27 @@
         <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>62.8</v>
@@ -941,27 +978,27 @@
         <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -970,53 +1007,53 @@
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>61.8</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>61.5</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -1025,27 +1062,27 @@
         <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>60</v>
@@ -1054,27 +1091,27 @@
         <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>62</v>
@@ -1083,53 +1120,53 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>62</v>
@@ -1138,27 +1175,27 @@
         <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>60</v>
@@ -1167,27 +1204,27 @@
         <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>62</v>
@@ -1196,27 +1233,27 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>60</v>
@@ -1225,27 +1262,27 @@
         <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>60</v>
@@ -1254,27 +1291,27 @@
         <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>61</v>
@@ -1283,53 +1320,53 @@
         <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16">
         <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <v>62</v>
@@ -1338,27 +1375,27 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1367,27 +1404,27 @@
         <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>60.1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>62.1</v>
@@ -1396,27 +1433,27 @@
         <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <v>61</v>
@@ -1425,27 +1462,27 @@
         <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G21">
         <v>61</v>
@@ -1454,27 +1491,27 @@
         <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22">
         <v>62</v>
@@ -1483,27 +1520,27 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <v>60</v>
@@ -1512,27 +1549,27 @@
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24">
         <v>61</v>
@@ -1541,27 +1578,27 @@
         <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25">
         <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G25">
         <v>62</v>
@@ -1570,27 +1607,27 @@
         <v>222</v>
       </c>
       <c r="I25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>151</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26">
         <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G26">
         <v>62</v>
@@ -1599,82 +1636,140 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27">
+        <v>59.01</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27">
+        <v>59.7</v>
+      </c>
+      <c r="H27">
+        <v>112</v>
+      </c>
+      <c r="J27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28">
+        <v>59.79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28">
+        <v>60.11</v>
+      </c>
+      <c r="H28">
+        <v>112</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27">
-        <v>62</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27">
-        <v>60</v>
-      </c>
-      <c r="H27">
-        <v>109</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28">
-        <v>60</v>
-      </c>
-      <c r="H28">
-        <v>118</v>
-      </c>
-      <c r="I28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G40">
